--- a/BD_Casos.xlsx
+++ b/BD_Casos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 640\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 640\Desktop\SIC\SIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA35FF1-E768-4E71-84F9-9229A3643A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88C77C-5657-4BD1-8ADB-B34412EA907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>VARCHAR(25)</t>
   </si>
   <si>
-    <t>Tab_Casos</t>
-  </si>
-  <si>
     <t>Genero</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>Tab_Expedientes</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,17 +673,17 @@
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -700,16 +700,16 @@
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,16 +729,16 @@
         <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -755,16 +755,16 @@
         <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,16 +775,16 @@
         <v>4</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -802,16 +802,16 @@
         <v>4</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>40</v>
@@ -868,10 +868,10 @@
         <v>24</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,22 +958,22 @@
         <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="5"/>
       <c r="I22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>40</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="23" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
